--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业年末从业人数.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,939 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68163</v>
+        <v>94096</v>
       </c>
       <c r="C2" t="n">
-        <v>240020</v>
+        <v>152892</v>
       </c>
       <c r="D2" t="n">
-        <v>40963</v>
+        <v>70523</v>
       </c>
       <c r="E2" t="n">
-        <v>212381</v>
+        <v>311916</v>
       </c>
       <c r="F2" t="n">
-        <v>37896</v>
+        <v>80529</v>
       </c>
       <c r="G2" t="n">
-        <v>56660</v>
+        <v>90860</v>
       </c>
       <c r="H2" t="n">
-        <v>70546</v>
+        <v>127902</v>
       </c>
       <c r="I2" t="n">
-        <v>51066</v>
+        <v>175077</v>
       </c>
       <c r="J2" t="n">
-        <v>377083</v>
+        <v>598710</v>
       </c>
       <c r="K2" t="n">
-        <v>67156</v>
+        <v>95998</v>
       </c>
       <c r="L2" t="n">
-        <v>268444</v>
+        <v>320744</v>
       </c>
       <c r="M2" t="n">
-        <v>91034</v>
+        <v>168716</v>
       </c>
       <c r="N2" t="n">
-        <v>262933</v>
+        <v>411924</v>
       </c>
       <c r="O2" t="n">
-        <v>626444</v>
+        <v>1091893</v>
       </c>
       <c r="P2" t="n">
-        <v>64077</v>
+        <v>66171</v>
       </c>
       <c r="Q2" t="n">
-        <v>150416</v>
+        <v>392750</v>
       </c>
       <c r="R2" t="n">
-        <v>34327</v>
+        <v>57163</v>
       </c>
       <c r="S2" t="n">
-        <v>10575</v>
+        <v>37869</v>
       </c>
       <c r="T2" t="n">
-        <v>120242</v>
+        <v>213778</v>
       </c>
       <c r="U2" t="n">
-        <v>503236</v>
+        <v>738425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102200</v>
+        <v>111508</v>
       </c>
       <c r="C3" t="n">
-        <v>143752</v>
+        <v>139843</v>
       </c>
       <c r="D3" t="n">
-        <v>60787</v>
+        <v>58056</v>
       </c>
       <c r="E3" t="n">
-        <v>275704</v>
+        <v>349719</v>
       </c>
       <c r="F3" t="n">
-        <v>71772</v>
+        <v>84123</v>
       </c>
       <c r="G3" t="n">
-        <v>94731</v>
+        <v>112088</v>
       </c>
       <c r="H3" t="n">
-        <v>101630</v>
+        <v>162696</v>
       </c>
       <c r="I3" t="n">
-        <v>153450</v>
+        <v>174252</v>
       </c>
       <c r="J3" t="n">
-        <v>542282</v>
+        <v>732653</v>
       </c>
       <c r="K3" t="n">
-        <v>89730</v>
+        <v>129341</v>
       </c>
       <c r="L3" t="n">
-        <v>314371</v>
+        <v>251706</v>
       </c>
       <c r="M3" t="n">
-        <v>139677</v>
+        <v>169329</v>
       </c>
       <c r="N3" t="n">
-        <v>352012</v>
+        <v>422760</v>
       </c>
       <c r="O3" t="n">
-        <v>990453</v>
+        <v>1105296</v>
       </c>
       <c r="P3" t="n">
-        <v>53189</v>
+        <v>68433</v>
       </c>
       <c r="Q3" t="n">
-        <v>336273</v>
+        <v>446027</v>
       </c>
       <c r="R3" t="n">
-        <v>52378</v>
+        <v>65393</v>
       </c>
       <c r="S3" t="n">
-        <v>38298</v>
+        <v>42912</v>
       </c>
       <c r="T3" t="n">
-        <v>226552</v>
+        <v>219485</v>
       </c>
       <c r="U3" t="n">
-        <v>630092</v>
+        <v>694840</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84504</v>
+        <v>110337</v>
       </c>
       <c r="C4" t="n">
-        <v>136946</v>
+        <v>153121</v>
       </c>
       <c r="D4" t="n">
-        <v>55068</v>
+        <v>70655</v>
       </c>
       <c r="E4" t="n">
-        <v>287407</v>
+        <v>386812</v>
       </c>
       <c r="F4" t="n">
-        <v>70716</v>
+        <v>99951</v>
       </c>
       <c r="G4" t="n">
-        <v>86504</v>
+        <v>135124</v>
       </c>
       <c r="H4" t="n">
-        <v>120290</v>
+        <v>156927</v>
       </c>
       <c r="I4" t="n">
-        <v>149099</v>
+        <v>201921</v>
       </c>
       <c r="J4" t="n">
-        <v>538877</v>
+        <v>621994</v>
       </c>
       <c r="K4" t="n">
-        <v>84997</v>
+        <v>93867</v>
       </c>
       <c r="L4" t="n">
-        <v>321454</v>
+        <v>269199</v>
       </c>
       <c r="M4" t="n">
-        <v>147162</v>
+        <v>197476</v>
       </c>
       <c r="N4" t="n">
-        <v>372274</v>
+        <v>449624</v>
       </c>
       <c r="O4" t="n">
-        <v>957603</v>
+        <v>1228160</v>
       </c>
       <c r="P4" t="n">
-        <v>54600</v>
+        <v>82103</v>
       </c>
       <c r="Q4" t="n">
-        <v>343994</v>
+        <v>703398</v>
       </c>
       <c r="R4" t="n">
-        <v>51630</v>
+        <v>67316</v>
       </c>
       <c r="S4" t="n">
-        <v>35210</v>
+        <v>41041</v>
       </c>
       <c r="T4" t="n">
-        <v>186113</v>
+        <v>235089</v>
       </c>
       <c r="U4" t="n">
-        <v>651490</v>
+        <v>777302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94096</v>
+        <v>125345</v>
       </c>
       <c r="C5" t="n">
-        <v>152892</v>
+        <v>218352</v>
       </c>
       <c r="D5" t="n">
-        <v>70523</v>
+        <v>80782</v>
       </c>
       <c r="E5" t="n">
-        <v>311916</v>
+        <v>454928</v>
       </c>
       <c r="F5" t="n">
-        <v>80529</v>
+        <v>134620</v>
       </c>
       <c r="G5" t="n">
-        <v>90860</v>
+        <v>165254</v>
       </c>
       <c r="H5" t="n">
-        <v>127902</v>
+        <v>170161</v>
       </c>
       <c r="I5" t="n">
-        <v>175077</v>
+        <v>255602</v>
       </c>
       <c r="J5" t="n">
-        <v>598710</v>
+        <v>685221</v>
       </c>
       <c r="K5" t="n">
-        <v>95998</v>
+        <v>96763</v>
       </c>
       <c r="L5" t="n">
-        <v>320744</v>
+        <v>280340</v>
       </c>
       <c r="M5" t="n">
-        <v>168716</v>
+        <v>212832</v>
       </c>
       <c r="N5" t="n">
-        <v>411924</v>
+        <v>458022</v>
       </c>
       <c r="O5" t="n">
-        <v>1091893</v>
+        <v>1370425</v>
       </c>
       <c r="P5" t="n">
-        <v>66171</v>
+        <v>89941</v>
       </c>
       <c r="Q5" t="n">
-        <v>392750</v>
+        <v>844084</v>
       </c>
       <c r="R5" t="n">
-        <v>57163</v>
+        <v>65218</v>
       </c>
       <c r="S5" t="n">
-        <v>37869</v>
+        <v>43663</v>
       </c>
       <c r="T5" t="n">
-        <v>213778</v>
+        <v>266521</v>
       </c>
       <c r="U5" t="n">
-        <v>738425</v>
+        <v>935112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111508</v>
+        <v>122490</v>
       </c>
       <c r="C6" t="n">
-        <v>139843</v>
+        <v>215053</v>
       </c>
       <c r="D6" t="n">
-        <v>58056</v>
+        <v>76357</v>
       </c>
       <c r="E6" t="n">
-        <v>349719</v>
+        <v>506629</v>
       </c>
       <c r="F6" t="n">
-        <v>84123</v>
+        <v>148859</v>
       </c>
       <c r="G6" t="n">
-        <v>112088</v>
+        <v>176517</v>
       </c>
       <c r="H6" t="n">
-        <v>162696</v>
+        <v>172300</v>
       </c>
       <c r="I6" t="n">
-        <v>174252</v>
+        <v>275482</v>
       </c>
       <c r="J6" t="n">
-        <v>732653</v>
+        <v>720552</v>
       </c>
       <c r="K6" t="n">
-        <v>129341</v>
+        <v>95796</v>
       </c>
       <c r="L6" t="n">
-        <v>251706</v>
+        <v>278876</v>
       </c>
       <c r="M6" t="n">
-        <v>169329</v>
+        <v>212626</v>
       </c>
       <c r="N6" t="n">
-        <v>422760</v>
+        <v>428918</v>
       </c>
       <c r="O6" t="n">
-        <v>1105296</v>
+        <v>1353868</v>
       </c>
       <c r="P6" t="n">
-        <v>68433</v>
+        <v>100811</v>
       </c>
       <c r="Q6" t="n">
-        <v>446027</v>
+        <v>876930</v>
       </c>
       <c r="R6" t="n">
-        <v>65393</v>
+        <v>65562</v>
       </c>
       <c r="S6" t="n">
-        <v>42912</v>
+        <v>41039</v>
       </c>
       <c r="T6" t="n">
-        <v>219485</v>
+        <v>259090</v>
       </c>
       <c r="U6" t="n">
-        <v>694840</v>
+        <v>987437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110337</v>
+        <v>107021</v>
       </c>
       <c r="C7" t="n">
-        <v>153121</v>
+        <v>220090</v>
       </c>
       <c r="D7" t="n">
-        <v>70655</v>
+        <v>74064</v>
       </c>
       <c r="E7" t="n">
-        <v>386812</v>
+        <v>552966</v>
       </c>
       <c r="F7" t="n">
-        <v>99951</v>
+        <v>150081</v>
       </c>
       <c r="G7" t="n">
-        <v>135124</v>
+        <v>177342</v>
       </c>
       <c r="H7" t="n">
-        <v>156927</v>
+        <v>169412</v>
       </c>
       <c r="I7" t="n">
-        <v>201921</v>
+        <v>281274</v>
       </c>
       <c r="J7" t="n">
-        <v>621994</v>
+        <v>679338</v>
       </c>
       <c r="K7" t="n">
-        <v>93867</v>
+        <v>89953</v>
       </c>
       <c r="L7" t="n">
-        <v>269199</v>
+        <v>273034</v>
       </c>
       <c r="M7" t="n">
-        <v>197476</v>
+        <v>175191</v>
       </c>
       <c r="N7" t="n">
-        <v>449624</v>
+        <v>387848</v>
       </c>
       <c r="O7" t="n">
-        <v>1228160</v>
+        <v>1250805</v>
       </c>
       <c r="P7" t="n">
-        <v>82103</v>
+        <v>105359</v>
       </c>
       <c r="Q7" t="n">
-        <v>703398</v>
+        <v>867306</v>
       </c>
       <c r="R7" t="n">
-        <v>67316</v>
+        <v>61088</v>
       </c>
       <c r="S7" t="n">
-        <v>41041</v>
+        <v>41675</v>
       </c>
       <c r="T7" t="n">
-        <v>235089</v>
+        <v>243368</v>
       </c>
       <c r="U7" t="n">
-        <v>777302</v>
+        <v>1010844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125345</v>
+        <v>98580</v>
       </c>
       <c r="C8" t="n">
-        <v>218352</v>
+        <v>224522</v>
       </c>
       <c r="D8" t="n">
-        <v>80782</v>
+        <v>68770</v>
       </c>
       <c r="E8" t="n">
-        <v>454928</v>
+        <v>610408</v>
       </c>
       <c r="F8" t="n">
-        <v>134620</v>
+        <v>154541</v>
       </c>
       <c r="G8" t="n">
-        <v>165254</v>
+        <v>190608</v>
       </c>
       <c r="H8" t="n">
-        <v>170161</v>
+        <v>168993</v>
       </c>
       <c r="I8" t="n">
-        <v>255602</v>
+        <v>253674</v>
       </c>
       <c r="J8" t="n">
-        <v>685221</v>
+        <v>731801</v>
       </c>
       <c r="K8" t="n">
-        <v>96763</v>
+        <v>95321</v>
       </c>
       <c r="L8" t="n">
-        <v>280340</v>
+        <v>263695</v>
       </c>
       <c r="M8" t="n">
-        <v>212832</v>
+        <v>164987</v>
       </c>
       <c r="N8" t="n">
-        <v>458022</v>
+        <v>355422</v>
       </c>
       <c r="O8" t="n">
-        <v>1370425</v>
+        <v>1192226</v>
       </c>
       <c r="P8" t="n">
-        <v>89941</v>
+        <v>106125</v>
       </c>
       <c r="Q8" t="n">
-        <v>844084</v>
+        <v>828061</v>
       </c>
       <c r="R8" t="n">
-        <v>65218</v>
+        <v>77213</v>
       </c>
       <c r="S8" t="n">
-        <v>43663</v>
+        <v>39407</v>
       </c>
       <c r="T8" t="n">
-        <v>266521</v>
+        <v>224710</v>
       </c>
       <c r="U8" t="n">
-        <v>935112</v>
+        <v>1043728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122490</v>
+        <v>91734</v>
       </c>
       <c r="C9" t="n">
-        <v>215053</v>
+        <v>200839</v>
       </c>
       <c r="D9" t="n">
-        <v>76357</v>
+        <v>59088</v>
       </c>
       <c r="E9" t="n">
-        <v>506629</v>
+        <v>704476</v>
       </c>
       <c r="F9" t="n">
-        <v>148859</v>
+        <v>153732</v>
       </c>
       <c r="G9" t="n">
-        <v>176517</v>
+        <v>209118</v>
       </c>
       <c r="H9" t="n">
-        <v>172300</v>
+        <v>172043</v>
       </c>
       <c r="I9" t="n">
-        <v>275482</v>
+        <v>253350</v>
       </c>
       <c r="J9" t="n">
-        <v>720552</v>
+        <v>782269</v>
       </c>
       <c r="K9" t="n">
-        <v>95796</v>
+        <v>93422</v>
       </c>
       <c r="L9" t="n">
-        <v>278876</v>
+        <v>249264</v>
       </c>
       <c r="M9" t="n">
-        <v>212626</v>
+        <v>143938</v>
       </c>
       <c r="N9" t="n">
-        <v>428918</v>
+        <v>355263</v>
       </c>
       <c r="O9" t="n">
-        <v>1353868</v>
+        <v>1181318</v>
       </c>
       <c r="P9" t="n">
-        <v>100811</v>
+        <v>106758</v>
       </c>
       <c r="Q9" t="n">
-        <v>876930</v>
+        <v>833329</v>
       </c>
       <c r="R9" t="n">
-        <v>65562</v>
+        <v>65332</v>
       </c>
       <c r="S9" t="n">
-        <v>41039</v>
+        <v>38955</v>
       </c>
       <c r="T9" t="n">
-        <v>259090</v>
+        <v>236333</v>
       </c>
       <c r="U9" t="n">
-        <v>987437</v>
+        <v>1021175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107021</v>
+        <v>104393</v>
       </c>
       <c r="C10" t="n">
-        <v>220090</v>
+        <v>175814</v>
       </c>
       <c r="D10" t="n">
-        <v>74064</v>
+        <v>52268</v>
       </c>
       <c r="E10" t="n">
-        <v>552966</v>
+        <v>760685</v>
       </c>
       <c r="F10" t="n">
-        <v>150081</v>
+        <v>165616</v>
       </c>
       <c r="G10" t="n">
-        <v>177342</v>
+        <v>207489</v>
       </c>
       <c r="H10" t="n">
-        <v>169412</v>
+        <v>113958</v>
       </c>
       <c r="I10" t="n">
-        <v>281274</v>
+        <v>312477</v>
       </c>
       <c r="J10" t="n">
-        <v>679338</v>
+        <v>843577</v>
       </c>
       <c r="K10" t="n">
-        <v>89953</v>
+        <v>150669</v>
       </c>
       <c r="L10" t="n">
-        <v>273034</v>
+        <v>252425</v>
       </c>
       <c r="M10" t="n">
-        <v>175191</v>
+        <v>133925</v>
       </c>
       <c r="N10" t="n">
-        <v>387848</v>
+        <v>340468</v>
       </c>
       <c r="O10" t="n">
-        <v>1250805</v>
+        <v>1193228</v>
       </c>
       <c r="P10" t="n">
-        <v>105359</v>
+        <v>111230</v>
       </c>
       <c r="Q10" t="n">
-        <v>867306</v>
+        <v>934578</v>
       </c>
       <c r="R10" t="n">
-        <v>61088</v>
+        <v>74538</v>
       </c>
       <c r="S10" t="n">
-        <v>41675</v>
+        <v>32512</v>
       </c>
       <c r="T10" t="n">
-        <v>243368</v>
+        <v>252873</v>
       </c>
       <c r="U10" t="n">
-        <v>1010844</v>
+        <v>1016619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98580</v>
+        <v>114872</v>
       </c>
       <c r="C11" t="n">
-        <v>224522</v>
+        <v>171016</v>
       </c>
       <c r="D11" t="n">
-        <v>68770</v>
+        <v>44614</v>
       </c>
       <c r="E11" t="n">
-        <v>610408</v>
+        <v>849013</v>
       </c>
       <c r="F11" t="n">
-        <v>154541</v>
+        <v>195130</v>
       </c>
       <c r="G11" t="n">
-        <v>190608</v>
+        <v>222359</v>
       </c>
       <c r="H11" t="n">
-        <v>168993</v>
+        <v>116579</v>
       </c>
       <c r="I11" t="n">
-        <v>253674</v>
+        <v>309284</v>
       </c>
       <c r="J11" t="n">
-        <v>731801</v>
+        <v>972243</v>
       </c>
       <c r="K11" t="n">
-        <v>95321</v>
+        <v>172589</v>
       </c>
       <c r="L11" t="n">
-        <v>263695</v>
+        <v>254982</v>
       </c>
       <c r="M11" t="n">
-        <v>164987</v>
+        <v>146043</v>
       </c>
       <c r="N11" t="n">
-        <v>355422</v>
+        <v>330361</v>
       </c>
       <c r="O11" t="n">
-        <v>1192226</v>
+        <v>1285379</v>
       </c>
       <c r="P11" t="n">
-        <v>106125</v>
+        <v>116301</v>
       </c>
       <c r="Q11" t="n">
-        <v>828061</v>
+        <v>967771</v>
       </c>
       <c r="R11" t="n">
-        <v>77213</v>
+        <v>95950</v>
       </c>
       <c r="S11" t="n">
-        <v>39407</v>
+        <v>34212</v>
       </c>
       <c r="T11" t="n">
-        <v>224710</v>
+        <v>285644</v>
       </c>
       <c r="U11" t="n">
-        <v>1043728</v>
+        <v>1068509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91734</v>
+        <v>130282</v>
       </c>
       <c r="C12" t="n">
-        <v>200839</v>
+        <v>175827</v>
       </c>
       <c r="D12" t="n">
-        <v>59088</v>
+        <v>41787</v>
       </c>
       <c r="E12" t="n">
-        <v>704476</v>
+        <v>874475</v>
       </c>
       <c r="F12" t="n">
-        <v>153732</v>
+        <v>232851</v>
       </c>
       <c r="G12" t="n">
-        <v>209118</v>
+        <v>225888</v>
       </c>
       <c r="H12" t="n">
-        <v>172043</v>
+        <v>126792</v>
       </c>
       <c r="I12" t="n">
-        <v>253350</v>
+        <v>284898</v>
       </c>
       <c r="J12" t="n">
-        <v>782269</v>
+        <v>1067557</v>
       </c>
       <c r="K12" t="n">
-        <v>93422</v>
+        <v>190974</v>
       </c>
       <c r="L12" t="n">
-        <v>249264</v>
+        <v>252700</v>
       </c>
       <c r="M12" t="n">
-        <v>143938</v>
+        <v>144456</v>
       </c>
       <c r="N12" t="n">
-        <v>355263</v>
+        <v>297541</v>
       </c>
       <c r="O12" t="n">
-        <v>1181318</v>
+        <v>1363328</v>
       </c>
       <c r="P12" t="n">
-        <v>106758</v>
+        <v>122168</v>
       </c>
       <c r="Q12" t="n">
-        <v>833329</v>
+        <v>952801</v>
       </c>
       <c r="R12" t="n">
-        <v>65332</v>
+        <v>105456</v>
       </c>
       <c r="S12" t="n">
-        <v>38955</v>
+        <v>35753</v>
       </c>
       <c r="T12" t="n">
-        <v>236333</v>
+        <v>321493</v>
       </c>
       <c r="U12" t="n">
-        <v>1021175</v>
+        <v>1131395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104393</v>
+        <v>144496</v>
       </c>
       <c r="C13" t="n">
-        <v>175814</v>
+        <v>186192</v>
       </c>
       <c r="D13" t="n">
-        <v>52268</v>
+        <v>43580</v>
       </c>
       <c r="E13" t="n">
-        <v>760685</v>
+        <v>913223</v>
       </c>
       <c r="F13" t="n">
-        <v>165616</v>
+        <v>264751</v>
       </c>
       <c r="G13" t="n">
-        <v>207489</v>
+        <v>248716</v>
       </c>
       <c r="H13" t="n">
-        <v>113958</v>
+        <v>132702</v>
       </c>
       <c r="I13" t="n">
-        <v>312477</v>
+        <v>283805</v>
       </c>
       <c r="J13" t="n">
-        <v>843577</v>
+        <v>1155744</v>
       </c>
       <c r="K13" t="n">
-        <v>150669</v>
+        <v>205738</v>
       </c>
       <c r="L13" t="n">
-        <v>252425</v>
+        <v>249212</v>
       </c>
       <c r="M13" t="n">
-        <v>133925</v>
+        <v>159136</v>
       </c>
       <c r="N13" t="n">
-        <v>340468</v>
+        <v>291764</v>
       </c>
       <c r="O13" t="n">
-        <v>1193228</v>
+        <v>1499459</v>
       </c>
       <c r="P13" t="n">
-        <v>111230</v>
+        <v>126518</v>
       </c>
       <c r="Q13" t="n">
-        <v>934578</v>
+        <v>976345</v>
       </c>
       <c r="R13" t="n">
-        <v>74538</v>
+        <v>118438</v>
       </c>
       <c r="S13" t="n">
-        <v>32512</v>
+        <v>31124</v>
       </c>
       <c r="T13" t="n">
-        <v>252873</v>
+        <v>375895</v>
       </c>
       <c r="U13" t="n">
-        <v>1016619</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>114872</v>
-      </c>
-      <c r="C14" t="n">
-        <v>171016</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44614</v>
-      </c>
-      <c r="E14" t="n">
-        <v>849013</v>
-      </c>
-      <c r="F14" t="n">
-        <v>195130</v>
-      </c>
-      <c r="G14" t="n">
-        <v>222359</v>
-      </c>
-      <c r="H14" t="n">
-        <v>116579</v>
-      </c>
-      <c r="I14" t="n">
-        <v>309284</v>
-      </c>
-      <c r="J14" t="n">
-        <v>972243</v>
-      </c>
-      <c r="K14" t="n">
-        <v>172589</v>
-      </c>
-      <c r="L14" t="n">
-        <v>254982</v>
-      </c>
-      <c r="M14" t="n">
-        <v>146043</v>
-      </c>
-      <c r="N14" t="n">
-        <v>330361</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1285379</v>
-      </c>
-      <c r="P14" t="n">
-        <v>116301</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>967771</v>
-      </c>
-      <c r="R14" t="n">
-        <v>95950</v>
-      </c>
-      <c r="S14" t="n">
-        <v>34212</v>
-      </c>
-      <c r="T14" t="n">
-        <v>285644</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1068509</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>130282</v>
-      </c>
-      <c r="C15" t="n">
-        <v>175827</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41787</v>
-      </c>
-      <c r="E15" t="n">
-        <v>874475</v>
-      </c>
-      <c r="F15" t="n">
-        <v>232851</v>
-      </c>
-      <c r="G15" t="n">
-        <v>225888</v>
-      </c>
-      <c r="H15" t="n">
-        <v>126792</v>
-      </c>
-      <c r="I15" t="n">
-        <v>284898</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1067557</v>
-      </c>
-      <c r="K15" t="n">
-        <v>190974</v>
-      </c>
-      <c r="L15" t="n">
-        <v>252700</v>
-      </c>
-      <c r="M15" t="n">
-        <v>144456</v>
-      </c>
-      <c r="N15" t="n">
-        <v>297541</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1363328</v>
-      </c>
-      <c r="P15" t="n">
-        <v>122168</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>952801</v>
-      </c>
-      <c r="R15" t="n">
-        <v>105456</v>
-      </c>
-      <c r="S15" t="n">
-        <v>35753</v>
-      </c>
-      <c r="T15" t="n">
-        <v>321493</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1131395</v>
+        <v>1198973</v>
       </c>
     </row>
   </sheetData>
